--- a/excel技巧学习.xlsx
+++ b/excel技巧学习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19230" windowHeight="7710"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="147">
   <si>
     <t>编号</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>合并文本</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>顾桑</t>
@@ -274,19 +277,253 @@
   <si>
     <t>No23 李</t>
   </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00001584 StartFragment:00000120 EndFragment:00001562</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>update_at</t>
+  </si>
+  <si>
+    <t>update_user_id</t>
+  </si>
+  <si>
+    <t>submitted_at</t>
+  </si>
+  <si>
+    <t>submitted_user_id</t>
+  </si>
+  <si>
+    <t>form_status</t>
+  </si>
+  <si>
+    <t>form_code</t>
+  </si>
+  <si>
+    <t>screen_id</t>
+  </si>
+  <si>
+    <t>field_id</t>
+  </si>
+  <si>
+    <t>field_tree_id</t>
+  </si>
+  <si>
+    <t>submitted_fiag</t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00002521 StartFragment:00000120 EndFragment:00002499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF55     </t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD15      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SED54     </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00002402 StartFragment:00000120 EndFragment:00002380 select * from GF_MST where record_id = 123 and 1 = 2</t>
+  </si>
+  <si>
+    <t>(状態) </t>
+  </si>
+  <si>
+    <t>record_id </t>
+  </si>
+  <si>
+    <t>created_at </t>
+  </si>
+  <si>
+    <t>update_at </t>
+  </si>
+  <si>
+    <t>update_user_id </t>
+  </si>
+  <si>
+    <t>submitted_at </t>
+  </si>
+  <si>
+    <t>submitted_user_id </t>
+  </si>
+  <si>
+    <t>form_status </t>
+  </si>
+  <si>
+    <t>form_code </t>
+  </si>
+  <si>
+    <t>screen_id </t>
+  </si>
+  <si>
+    <t>field_id </t>
+  </si>
+  <si>
+    <t>field_tree_id </t>
+  </si>
+  <si>
+    <t>submitted_fiag </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00002376 StartFragment:00000120 EndFragment:00002354 select * from GF_MST where record_id = 123</t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00003195 StartFragment:00000120 EndFragment:00003173 select * from GF_MST where record_id = 123</t>
+  </si>
+  <si>
+    <t>UKF55      </t>
+  </si>
+  <si>
+    <t>FD15       </t>
+  </si>
+  <si>
+    <t>SED54      </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00001218 StartFragment:00000120 EndFragment:00001196 select * from koxin_tf_mster</t>
+  </si>
+  <si>
+    <t>- (削除) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>+ (追加) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00000892 StartFragment:00000120 EndFragment:00000870 select * from koxin_tf_mster</t>
+  </si>
+  <si>
+    <t>su1        </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00000904 StartFragment:00000120 EndFragment:00000882 select * from koxin_tf_mster</t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00000601 StartFragment:00000120 EndFragment:00000579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00007332 StartFragment:00000120 EndFragment:00007310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uu1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">su1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH10      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uu13      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH13      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSI121    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF21     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH12      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEE12     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKK55     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKP90     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSI9990   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKH67     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F43       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH321     </t>
+  </si>
+  <si>
+    <t>Version:0.9 StartHTML:00000097 EndHTML:00001007 StartFragment:00000120 EndFragment:00000985</t>
+  </si>
+  <si>
+    <t>0000000999</t>
+  </si>
+  <si>
+    <t>0000000998</t>
+  </si>
+  <si>
+    <t>0000000112</t>
+  </si>
+  <si>
+    <t>0000000111</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -302,7 +539,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +562,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,48 +584,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,8 +613,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,10 +643,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,7 +661,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,28 +681,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDC58F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8C8CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4EBFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,7 +727,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,49 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,19 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,19 +847,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,25 +889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,21 +937,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -706,16 +952,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +991,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,31 +1019,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,156 +1038,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="71" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -935,16 +1244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -962,11 +1268,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1325,479 +1631,506 @@
   <sheetPr/>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="5.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9" style="21" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="21" customWidth="1"/>
+    <col min="5" max="7" width="9" style="21"/>
+    <col min="8" max="8" width="8.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="20" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:11">
-      <c r="A2" s="7">
+      <c r="A2" s="19">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="23">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="23">
         <v>12</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="23">
         <f ca="1" t="shared" ref="E2:G2" si="0">RANDBETWEEN(10,99)</f>
-        <v>42</v>
-      </c>
-      <c r="F2" s="8">
+        <v>24</v>
+      </c>
+      <c r="F2" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G2" s="8">
+        <v>68</v>
+      </c>
+      <c r="G2" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="str">
+        <v>15</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="21" t="str">
         <f t="shared" ref="I2:I8" si="1">B2&amp;C2</f>
         <v>顾桑20</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="J2" s="29">
+        <v>44290</v>
+      </c>
+      <c r="K2" s="21" t="str">
         <f ca="1">D2&amp;E2</f>
-        <v>1242</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:11">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <f t="shared" ref="A3:A8" si="2">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="23">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>46</v>
-      </c>
-      <c r="D3" s="8">
+        <v>57</v>
+      </c>
+      <c r="D3" s="23">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>52</v>
-      </c>
-      <c r="E3" s="8">
+        <v>12</v>
+      </c>
+      <c r="E3" s="23">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>37</v>
-      </c>
-      <c r="F3" s="8">
+        <v>71</v>
+      </c>
+      <c r="F3" s="23">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>64</v>
-      </c>
-      <c r="G3" s="8">
+        <v>24</v>
+      </c>
+      <c r="G3" s="23">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="str">
+        <v>69</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="21" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>张三46</v>
-      </c>
-      <c r="K3" s="5" t="str">
+        <v>张三57</v>
+      </c>
+      <c r="J3" s="29">
+        <v>44291</v>
+      </c>
+      <c r="K3" s="21" t="str">
         <f ca="1">D3&amp;E3</f>
-        <v>5237</v>
-      </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:10">
+      <c r="A4" s="19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23">
+        <f ca="1">RANDBETWEEN(10,99)</f>
+        <v>17</v>
+      </c>
+      <c r="D4" s="24">
+        <f ca="1">RANDBETWEEN(10,99)</f>
+        <v>54</v>
+      </c>
+      <c r="E4" s="23">
+        <f ca="1">RANDBETWEEN(10,99)</f>
+        <v>29</v>
+      </c>
+      <c r="F4" s="23">
+        <f ca="1">RANDBETWEEN(10,99)</f>
+        <v>96</v>
+      </c>
+      <c r="G4" s="23">
+        <f ca="1">RANDBETWEEN(10,99)</f>
+        <v>53</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
-        <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>46</v>
-      </c>
-      <c r="D4" s="9">
-        <f ca="1">RANDBETWEEN(10,99)</f>
+      <c r="I4" s="21" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>李四17</v>
+      </c>
+      <c r="J4" s="29">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:10">
+      <c r="A5" s="19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23">
+        <v>18</v>
+      </c>
+      <c r="D5" s="23">
+        <v>20</v>
+      </c>
+      <c r="E5" s="23">
+        <v>90</v>
+      </c>
+      <c r="F5" s="23">
         <v>86</v>
       </c>
-      <c r="E4" s="8">
-        <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>46</v>
-      </c>
-      <c r="F4" s="8">
-        <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>19</v>
-      </c>
-      <c r="G4" s="8">
-        <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>79</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>李四46</v>
-      </c>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
-        <f>ROW()-1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
-        <v>90</v>
-      </c>
-      <c r="F5" s="8">
-        <v>86</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="G5" s="23">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5" t="str">
+      <c r="H5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="21" t="str">
         <f t="shared" si="1"/>
         <v>顾桑18</v>
       </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
+      <c r="J5" s="29">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:10">
+      <c r="A6" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23">
         <f ca="1" t="shared" ref="C6:G8" si="3">RANDBETWEEN(10,99)</f>
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
+        <v>96</v>
+      </c>
+      <c r="D6" s="23">
         <f ca="1" t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="E6" s="8">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23">
         <f ca="1" t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="23">
         <f ca="1" t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="G6" s="8">
+        <v>78</v>
+      </c>
+      <c r="G6" s="23">
         <f ca="1" t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="21" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>王五12</v>
-      </c>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
+        <v>王五96</v>
+      </c>
+      <c r="J6" s="29">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:10">
+      <c r="A7" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23">
         <f ca="1" t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="D7" s="8">
+        <v>53</v>
+      </c>
+      <c r="D7" s="23">
         <f ca="1" t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="E7" s="9">
+        <v>77</v>
+      </c>
+      <c r="E7" s="24">
         <f ca="1" t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="F7" s="8">
+        <v>95</v>
+      </c>
+      <c r="F7" s="23">
         <f ca="1" t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="G7" s="8">
+        <v>65</v>
+      </c>
+      <c r="G7" s="23">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>57</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="str">
+        <v>85</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="21" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>哈七57</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:9">
-      <c r="A8" s="7">
+        <v>哈七53</v>
+      </c>
+      <c r="J7" s="29">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:10">
+      <c r="A8" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="23">
         <f ca="1" t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D8" s="23">
+        <f ca="1" t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="23">
+        <f ca="1" t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F8" s="23">
+        <f ca="1" t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="23">
+        <f ca="1" t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>刘巴78</v>
+      </c>
+      <c r="J8" s="29">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="4:14">
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="4:14">
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="4:14">
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="4:19">
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="4:14">
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="4:14">
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="4:14">
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="4:14">
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8">
-        <f ca="1" t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="E8" s="8">
-        <f ca="1" t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="F8" s="8">
-        <f ca="1" t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="G8" s="8">
-        <f ca="1" t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>刘巴25</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="4:14">
-      <c r="D12" s="5">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="4:14">
+      <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="4:14">
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="4:14">
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="4:19">
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="4:14">
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="4:14">
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="4:14">
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="4:14">
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="25" customHeight="1" spans="4:14">
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="5:14">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H5">
+  <autoFilter ref="H1:H8">
     <extLst/>
   </autoFilter>
-  <mergeCells count="9">
-    <mergeCell ref="J1:O1"/>
+  <mergeCells count="8">
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E14:N14"/>
     <mergeCell ref="E16:N16"/>
@@ -1847,283 +2180,283 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="6:7">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="6:7">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="6:7">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="6:7">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="6:7">
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="6:7">
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="6:7">
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2139,128 +2472,128 @@
   <sheetPr/>
   <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="E540" sqref="E540"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2272,21 +2605,1521 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="J1"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="12" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="10:10">
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>123</v>
+      </c>
+      <c r="B22" s="3">
+        <v>35431</v>
+      </c>
+      <c r="C22" s="3">
+        <v>35431</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2">
+        <v>132112</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:13">
+      <c r="A26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:13">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:13">
+      <c r="A34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="1:13">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:13">
+      <c r="A41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" spans="1:13">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8">
+        <v>123</v>
+      </c>
+      <c r="C43" s="9">
+        <v>35431</v>
+      </c>
+      <c r="D43" s="9">
+        <v>35431</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" s="8">
+        <v>132112</v>
+      </c>
+      <c r="L43" s="8">
+        <v>3</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:13">
+      <c r="A49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="1:13">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8">
+        <v>123</v>
+      </c>
+      <c r="C51" s="9">
+        <v>35431</v>
+      </c>
+      <c r="D51" s="9">
+        <v>35431</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" s="8">
+        <v>132112</v>
+      </c>
+      <c r="L51" s="8">
+        <v>3</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:13">
+      <c r="A57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:13">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:13">
+      <c r="A62" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" ht="40.5" spans="1:13">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8">
+        <v>123</v>
+      </c>
+      <c r="C64" s="9">
+        <v>35431</v>
+      </c>
+      <c r="D64" s="9">
+        <v>35431</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64" s="8">
+        <v>132112</v>
+      </c>
+      <c r="L64" s="8">
+        <v>3</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="1:13">
+      <c r="A67" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" ht="40.5" spans="1:13">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8">
+        <v>123</v>
+      </c>
+      <c r="C69" s="9">
+        <v>35431</v>
+      </c>
+      <c r="D69" s="9">
+        <v>35431</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="8">
+        <v>3</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="8">
+        <v>132112</v>
+      </c>
+      <c r="L69" s="8">
+        <v>3</v>
+      </c>
+      <c r="M69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="1:3">
+      <c r="A74" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="12">
+        <v>1</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="15">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="1:3">
+      <c r="A81" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8">
+        <v>1</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="1:3">
+      <c r="A89" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="1:3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8">
+        <v>1</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:3">
+      <c r="A94" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="8">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="2">
+        <v>1</v>
+      </c>
+      <c r="B112" s="9">
+        <v>43483.9317939815</v>
+      </c>
+      <c r="C112" s="9">
+        <v>43664.9319212963</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="9">
+        <v>44089.9324074074</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J112" s="2">
+        <v>100</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113" s="3">
+        <v>35431</v>
+      </c>
+      <c r="C113" s="3">
+        <v>35431</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="9">
+        <v>43647.9360185185</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J113" s="2">
+        <v>222</v>
+      </c>
+      <c r="K113" s="2">
+        <v>2</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="2">
+        <v>21</v>
+      </c>
+      <c r="B114" s="9">
+        <v>43629.9384722222</v>
+      </c>
+      <c r="C114" s="9">
+        <v>44189.938599537</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="2">
+        <v>5</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J114" s="2">
+        <v>21</v>
+      </c>
+      <c r="K114" s="2">
+        <v>5</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="2">
+        <v>123</v>
+      </c>
+      <c r="B115" s="3">
+        <v>35431</v>
+      </c>
+      <c r="C115" s="3">
+        <v>35431</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115" s="2">
+        <v>3</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J115" s="2">
+        <v>132112</v>
+      </c>
+      <c r="K115" s="2">
+        <v>3</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="2">
+        <v>223</v>
+      </c>
+      <c r="B116" s="3">
+        <v>35431</v>
+      </c>
+      <c r="C116" s="3">
+        <v>35431</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J116" s="2">
+        <v>321</v>
+      </c>
+      <c r="K116" s="2">
+        <v>3</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="2">
+        <v>432</v>
+      </c>
+      <c r="B117" s="3">
+        <v>35431</v>
+      </c>
+      <c r="C117" s="3">
+        <v>35431</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G117" s="2">
+        <v>4</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1342</v>
+      </c>
+      <c r="K117" s="2">
+        <v>4</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>999</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>998</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>112</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>111</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2294,17 +4127,28 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="J1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="10:10">
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <f>S1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
